--- a/latihan3.xlsx
+++ b/latihan3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnura\Documents\Metopel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D462FA-8A52-440D-A9C5-6C00DC59A757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07012764-008E-4E34-90F9-0973E3B5353F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12B5CC70-DEED-4E6C-B141-ABE40C210112}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
